--- a/modelos/OBAPPA4451306/OBAPPA4451306_Sell in_metricas.xlsx
+++ b/modelos/OBAPPA4451306/OBAPPA4451306_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44971</v>
       </c>
       <c r="B2" t="n">
-        <v>-7.573863911281855</v>
+        <v>9.787292180927517</v>
       </c>
       <c r="C2" t="n">
-        <v>-39.34674346083484</v>
+        <v>-19.16513002055873</v>
       </c>
       <c r="D2" t="n">
-        <v>22.54828694454052</v>
+        <v>39.71796876870528</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
@@ -496,13 +496,13 @@
         <v>44992</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.779843620626494</v>
+        <v>13.21649201162196</v>
       </c>
       <c r="C3" t="n">
-        <v>-35.14228179700272</v>
+        <v>-14.01789873411127</v>
       </c>
       <c r="D3" t="n">
-        <v>26.7552039301251</v>
+        <v>41.51747235618392</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -516,13 +516,13 @@
         <v>44999</v>
       </c>
       <c r="B4" t="n">
-        <v>4.194643015748113</v>
+        <v>16.64308710372037</v>
       </c>
       <c r="C4" t="n">
-        <v>-27.46901580703377</v>
+        <v>-11.84573519169767</v>
       </c>
       <c r="D4" t="n">
-        <v>35.14325459395634</v>
+        <v>44.8857196998627</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -536,13 +536,13 @@
         <v>45006</v>
       </c>
       <c r="B5" t="n">
-        <v>3.847641460041345</v>
+        <v>13.56006267666329</v>
       </c>
       <c r="C5" t="n">
-        <v>-28.74871717251719</v>
+        <v>-14.21196192152941</v>
       </c>
       <c r="D5" t="n">
-        <v>33.53924854019549</v>
+        <v>40.77355514015392</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -556,13 +556,13 @@
         <v>45013</v>
       </c>
       <c r="B6" t="n">
-        <v>3.431905967765523</v>
+        <v>11.62038979948293</v>
       </c>
       <c r="C6" t="n">
-        <v>-27.15323259435545</v>
+        <v>-15.01862434617269</v>
       </c>
       <c r="D6" t="n">
-        <v>32.26280857420188</v>
+        <v>37.07768966475423</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>45020</v>
       </c>
       <c r="B7" t="n">
-        <v>3.07442223534737</v>
+        <v>10.21786424261009</v>
       </c>
       <c r="C7" t="n">
-        <v>-27.52537963605689</v>
+        <v>-16.87700834126485</v>
       </c>
       <c r="D7" t="n">
-        <v>30.6425749697276</v>
+        <v>34.06181246367915</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>45027</v>
       </c>
       <c r="B8" t="n">
-        <v>2.965475027151763</v>
+        <v>8.852940533826812</v>
       </c>
       <c r="C8" t="n">
-        <v>-26.60873634157227</v>
+        <v>-17.74098950090217</v>
       </c>
       <c r="D8" t="n">
-        <v>30.54930664827621</v>
+        <v>33.74836635404464</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -616,13 +616,13 @@
         <v>45037</v>
       </c>
       <c r="B9" t="n">
-        <v>29.84153781435747</v>
+        <v>61.11501617347099</v>
       </c>
       <c r="C9" t="n">
-        <v>3.791821784039555</v>
+        <v>36.91607218443578</v>
       </c>
       <c r="D9" t="n">
-        <v>57.45833679814864</v>
+        <v>84.22768251207667</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -636,13 +636,13 @@
         <v>45044</v>
       </c>
       <c r="B10" t="n">
-        <v>19.88995420579425</v>
+        <v>31.8750838305934</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.526964150955844</v>
+        <v>7.774750962829068</v>
       </c>
       <c r="D10" t="n">
-        <v>47.59010356937913</v>
+        <v>58.07150132066023</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -656,13 +656,13 @@
         <v>45055</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.757297583567315</v>
+        <v>-4.60560747579531</v>
       </c>
       <c r="C11" t="n">
-        <v>-29.07751039039557</v>
+        <v>-29.07203396225544</v>
       </c>
       <c r="D11" t="n">
-        <v>22.87213315080061</v>
+        <v>22.12987002025754</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>246.0922589095917</v>
+        <v>1536.611614868227</v>
       </c>
       <c r="C2" t="n">
-        <v>15.68732797227086</v>
+        <v>39.19963794307579</v>
       </c>
       <c r="D2" t="n">
-        <v>12.86574601007586</v>
+        <v>34.4950500020322</v>
       </c>
       <c r="E2" t="n">
-        <v>1.486657182328412</v>
+        <v>3.815784880547981</v>
       </c>
       <c r="F2" t="n">
-        <v>1.486657182328412</v>
+        <v>3.815784880547981</v>
       </c>
       <c r="G2" t="n">
-        <v>0.685569801813647</v>
+        <v>1.100095686275449</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -763,25 +763,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>247.3769515745275</v>
+        <v>75.19466890294734</v>
       </c>
       <c r="C3" t="n">
-        <v>15.72822150068238</v>
+        <v>8.671485968560829</v>
       </c>
       <c r="D3" t="n">
-        <v>11.69961467617769</v>
+        <v>7.312020954943662</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8546007143981669</v>
+        <v>0.6536253713736819</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6225064210938042</v>
+        <v>0.5223724420316929</v>
       </c>
       <c r="G3" t="n">
-        <v>1.241504667823824</v>
+        <v>0.6689737133777234</v>
       </c>
       <c r="H3" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAPPA4451306/OBAPPA4451306_Sell in_metricas.xlsx
+++ b/modelos/OBAPPA4451306/OBAPPA4451306_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44971</v>
       </c>
       <c r="B2" t="n">
-        <v>9.787292180927517</v>
+        <v>-7.573863911266763</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.16513002055873</v>
+        <v>-39.2603688731697</v>
       </c>
       <c r="D2" t="n">
-        <v>39.71796876870528</v>
+        <v>23.81228425206386</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
@@ -496,13 +496,13 @@
         <v>44992</v>
       </c>
       <c r="B3" t="n">
-        <v>13.21649201162196</v>
+        <v>-2.779843620626536</v>
       </c>
       <c r="C3" t="n">
-        <v>-14.01789873411127</v>
+        <v>-33.73582305362995</v>
       </c>
       <c r="D3" t="n">
-        <v>41.51747235618392</v>
+        <v>28.08661637787917</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -516,13 +516,13 @@
         <v>44999</v>
       </c>
       <c r="B4" t="n">
-        <v>16.64308710372037</v>
+        <v>4.194643015748319</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.84573519169767</v>
+        <v>-27.59532472024333</v>
       </c>
       <c r="D4" t="n">
-        <v>44.8857196998627</v>
+        <v>37.50903549199406</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -536,13 +536,13 @@
         <v>45006</v>
       </c>
       <c r="B5" t="n">
-        <v>13.56006267666329</v>
+        <v>3.847641460041331</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.21196192152941</v>
+        <v>-26.5687577061773</v>
       </c>
       <c r="D5" t="n">
-        <v>40.77355514015392</v>
+        <v>33.40303957272499</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -556,13 +556,13 @@
         <v>45013</v>
       </c>
       <c r="B6" t="n">
-        <v>11.62038979948293</v>
+        <v>3.431905967765662</v>
       </c>
       <c r="C6" t="n">
-        <v>-15.01862434617269</v>
+        <v>-26.1846216666916</v>
       </c>
       <c r="D6" t="n">
-        <v>37.07768966475423</v>
+        <v>36.46285323786405</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>45020</v>
       </c>
       <c r="B7" t="n">
-        <v>10.21786424261009</v>
+        <v>3.074422235347537</v>
       </c>
       <c r="C7" t="n">
-        <v>-16.87700834126485</v>
+        <v>-25.74227791719881</v>
       </c>
       <c r="D7" t="n">
-        <v>34.06181246367915</v>
+        <v>30.87659194287536</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>45027</v>
       </c>
       <c r="B8" t="n">
-        <v>8.852940533826812</v>
+        <v>2.965475027153671</v>
       </c>
       <c r="C8" t="n">
-        <v>-17.74098950090217</v>
+        <v>-25.3007365180862</v>
       </c>
       <c r="D8" t="n">
-        <v>33.74836635404464</v>
+        <v>29.6653605904583</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -616,13 +616,13 @@
         <v>45037</v>
       </c>
       <c r="B9" t="n">
-        <v>61.11501617347099</v>
+        <v>29.84153781435689</v>
       </c>
       <c r="C9" t="n">
-        <v>36.91607218443578</v>
+        <v>3.113814540601686</v>
       </c>
       <c r="D9" t="n">
-        <v>84.22768251207667</v>
+        <v>57.80690764062425</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -636,13 +636,13 @@
         <v>45044</v>
       </c>
       <c r="B10" t="n">
-        <v>31.8750838305934</v>
+        <v>19.88995420579425</v>
       </c>
       <c r="C10" t="n">
-        <v>7.774750962829068</v>
+        <v>-7.888332783203133</v>
       </c>
       <c r="D10" t="n">
-        <v>58.07150132066023</v>
+        <v>47.42674622591344</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -656,13 +656,13 @@
         <v>45055</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.60560747579531</v>
+        <v>-4.757241318095396</v>
       </c>
       <c r="C11" t="n">
-        <v>-29.07203396225544</v>
+        <v>-31.70154090322206</v>
       </c>
       <c r="D11" t="n">
-        <v>22.12987002025754</v>
+        <v>22.85513888393902</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1536.611614868227</v>
+        <v>246.0922589095792</v>
       </c>
       <c r="C2" t="n">
-        <v>39.19963794307579</v>
+        <v>15.68732797227046</v>
       </c>
       <c r="D2" t="n">
-        <v>34.4950500020322</v>
+        <v>12.86574601007557</v>
       </c>
       <c r="E2" t="n">
-        <v>3.815784880547981</v>
+        <v>1.486657182328376</v>
       </c>
       <c r="F2" t="n">
-        <v>3.815784880547981</v>
+        <v>1.486657182328376</v>
       </c>
       <c r="G2" t="n">
-        <v>1.100095686275449</v>
+        <v>0.6855698018136406</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -763,25 +763,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>75.19466890294734</v>
+        <v>247.3767721259592</v>
       </c>
       <c r="C3" t="n">
-        <v>8.671485968560829</v>
+        <v>15.7282157960132</v>
       </c>
       <c r="D3" t="n">
-        <v>7.312020954943662</v>
+        <v>11.69960764299152</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6536253713736819</v>
+        <v>0.8545998352500517</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5223724420316929</v>
+        <v>0.6225064210936745</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6689737133777234</v>
+        <v>1.241504667823746</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAPPA4451306/OBAPPA4451306_Sell in_metricas.xlsx
+++ b/modelos/OBAPPA4451306/OBAPPA4451306_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44971</v>
       </c>
       <c r="B2" t="n">
-        <v>-7.573863911266763</v>
+        <v>9.787292180927217</v>
       </c>
       <c r="C2" t="n">
-        <v>-39.2603688731697</v>
+        <v>-19.48121245279433</v>
       </c>
       <c r="D2" t="n">
-        <v>23.81228425206386</v>
+        <v>38.62040510716304</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
@@ -496,13 +496,13 @@
         <v>44992</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.779843620626536</v>
+        <v>13.21649201162156</v>
       </c>
       <c r="C3" t="n">
-        <v>-33.73582305362995</v>
+        <v>-15.39316521359454</v>
       </c>
       <c r="D3" t="n">
-        <v>28.08661637787917</v>
+        <v>40.1945728335301</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -516,13 +516,13 @@
         <v>44999</v>
       </c>
       <c r="B4" t="n">
-        <v>4.194643015748319</v>
+        <v>16.64308710372609</v>
       </c>
       <c r="C4" t="n">
-        <v>-27.59532472024333</v>
+        <v>-13.01382861634772</v>
       </c>
       <c r="D4" t="n">
-        <v>37.50903549199406</v>
+        <v>45.25748098924318</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -536,13 +536,13 @@
         <v>45006</v>
       </c>
       <c r="B5" t="n">
-        <v>3.847641460041331</v>
+        <v>13.5600626766697</v>
       </c>
       <c r="C5" t="n">
-        <v>-26.5687577061773</v>
+        <v>-15.25247260142534</v>
       </c>
       <c r="D5" t="n">
-        <v>33.40303957272499</v>
+        <v>40.76258111618532</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -556,13 +556,13 @@
         <v>45013</v>
       </c>
       <c r="B6" t="n">
-        <v>3.431905967765662</v>
+        <v>11.62038979948279</v>
       </c>
       <c r="C6" t="n">
-        <v>-26.1846216666916</v>
+        <v>-16.05463226417731</v>
       </c>
       <c r="D6" t="n">
-        <v>36.46285323786405</v>
+        <v>36.29387556641392</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>45020</v>
       </c>
       <c r="B7" t="n">
-        <v>3.074422235347537</v>
+        <v>10.21786424260994</v>
       </c>
       <c r="C7" t="n">
-        <v>-25.74227791719881</v>
+        <v>-15.62442275613058</v>
       </c>
       <c r="D7" t="n">
-        <v>30.87659194287536</v>
+        <v>33.41099743090574</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>45027</v>
       </c>
       <c r="B8" t="n">
-        <v>2.965475027153671</v>
+        <v>8.852940533823288</v>
       </c>
       <c r="C8" t="n">
-        <v>-25.3007365180862</v>
+        <v>-14.73631369350515</v>
       </c>
       <c r="D8" t="n">
-        <v>29.6653605904583</v>
+        <v>34.36765958134531</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -616,13 +616,13 @@
         <v>45037</v>
       </c>
       <c r="B9" t="n">
-        <v>29.84153781435689</v>
+        <v>61.1150161734778</v>
       </c>
       <c r="C9" t="n">
-        <v>3.113814540601686</v>
+        <v>36.83889082009364</v>
       </c>
       <c r="D9" t="n">
-        <v>57.80690764062425</v>
+        <v>84.08808289069958</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -636,13 +636,13 @@
         <v>45044</v>
       </c>
       <c r="B10" t="n">
-        <v>19.88995420579425</v>
+        <v>31.87508383059339</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.888332783203133</v>
+        <v>5.989085987849339</v>
       </c>
       <c r="D10" t="n">
-        <v>47.42674622591344</v>
+        <v>57.72234125634509</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -656,13 +656,13 @@
         <v>45055</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.757241318095396</v>
+        <v>-4.605607475420243</v>
       </c>
       <c r="C11" t="n">
-        <v>-31.70154090322206</v>
+        <v>-29.93942334057336</v>
       </c>
       <c r="D11" t="n">
-        <v>22.85513888393902</v>
+        <v>22.53006636098497</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>246.0922589095792</v>
+        <v>1536.611614868588</v>
       </c>
       <c r="C2" t="n">
-        <v>15.68732797227046</v>
+        <v>39.19963794308039</v>
       </c>
       <c r="D2" t="n">
-        <v>12.86574601007557</v>
+        <v>34.4950500020356</v>
       </c>
       <c r="E2" t="n">
-        <v>1.486657182328376</v>
+        <v>3.815784880548406</v>
       </c>
       <c r="F2" t="n">
-        <v>1.486657182328376</v>
+        <v>3.815784880548406</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6855698018136406</v>
+        <v>1.100095686275471</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -763,25 +763,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>247.3767721259592</v>
+        <v>75.19466890178774</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7282157960132</v>
+        <v>8.671485968493966</v>
       </c>
       <c r="D3" t="n">
-        <v>11.69960764299152</v>
+        <v>7.31202095489791</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8545998352500517</v>
+        <v>0.653625371367955</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6225064210936745</v>
+        <v>0.5223724420316909</v>
       </c>
       <c r="G3" t="n">
-        <v>1.241504667823746</v>
+        <v>0.6689737133777705</v>
       </c>
       <c r="H3" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
